--- a/validation/phenotype/experimental_clim_batch.xlsx
+++ b/validation/phenotype/experimental_clim_batch.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t xml:space="preserve">data_id</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t xml:space="preserve">Kumar2021_chemoClim10gL026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kummel2010_batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heyland2009_batch</t>
   </si>
   <si>
     <t xml:space="preserve">Vos2016_growthArrestCAero</t>
@@ -222,11 +231,11 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.61"/>
@@ -609,19 +618,53 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="0" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="n">
         <v>0.039</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>17</v>
       </c>
     </row>
